--- a/resultados_simulacion(3).xlsx
+++ b/resultados_simulacion(3).xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALFONSO\Desktop\Proyects\Simulacion Software\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A6609-A383-40EA-B448-A01EE99FE310}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id_tarea</t>
   </si>
@@ -32,14 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -50,29 +50,2806 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Analisis de resultados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.373339810285551E-2"/>
+          <c:y val="0.23570107512259894"/>
+          <c:w val="0.90257458850642236"/>
+          <c:h val="0.69827347320535316"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>llegada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Worksheet!$A$2:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Worksheet!$B$2:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>4.3882172164793998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.103215200417999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.959268150265999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.799011748525999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.224366103709997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.942490835949997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.14232818552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.86794402452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.15888792976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147.67034056465999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.98791886107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.57979960051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204.22290004554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224.27840279463001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>221.07069048276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220.81480196627001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>236.31077950644001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247.60309559005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.41543034944999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>283.56016414797</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>298.66582565258</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311.74916065589002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320.50288441604999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.76045709488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>336.73271736723001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>344.63684155662997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>362.54770387443</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>357.28564955719003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>361.24790520411</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>386.94538438094003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>387.16804557210003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>383.98701043925001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>387.21823930930998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>402.59507118343998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400.37969384540003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>415.53882427266001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>424.34891265298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>439.87664254383998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>481.42183941432</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>488.10303222008997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>496.17653868887999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>501.42517865500002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>514.23416323954996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>517.29886281805</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>530.25154369257996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>556.94793639417003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>566.01722816029996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>555.31464176854001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>572.61248740492999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>594.44221155154003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>568.41387046812997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>599.96623562709999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>638.47301472608001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>631.36607073495998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>659.14297803687998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>666.00652067438</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>651.05827384755003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>671.52936298565999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>654.56752051987996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690.93482065433</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>687.07758174309004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>699.52920063829004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>696.81022765244995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>709.27424017240003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>703.16206105332003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>709.79655682619</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>729.37896311054999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>732.23747231742004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>747.43926115489</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>783.61924463700996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>782.34057457660003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>780.36398917349004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>801.35098479234</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>810.51203093625998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>810.31634221439003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>819.49907439894002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>844.09353003882995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>865.40323265098004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>882.76984306377994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>879.60532144322997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>882.45307272153002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>889.16345570297005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>892.76989894226995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>915.11964268601002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>904.20093273634996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>916.38606646192</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>919.45116315184998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>923.00171811947996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>923.34308314099997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>934.56317253290001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>934.61386118744997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>935.58394790896</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>945.36224731162997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>953.85231948318994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D09A-4417-94A3-48CDD10BE3AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>salida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Worksheet!$A$2:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Worksheet!$C$2:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>39.416210942604998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.593306685461002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.681343610797001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.26411398478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.66253081682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.24840491545999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.38017460911999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152.34664790703999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190.53172662681001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193.53172662681001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198.81514005445001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209.49555264105999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>235.96130678588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>261.39897736568003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.70462166022998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>269.94752205127003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>272.94752205127003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>277.37008831797999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>304.85879857172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>311.14544482552998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.38582394095999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>341.38582394095999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>365.56598998841002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>376.52444431535002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388.32394794366002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>392.62539385507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>399.98193933392997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>402.98193933392997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>405.98193933392997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>421.80232346290001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>429.73872522287002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>437.51225519322003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>440.51225519322003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>445.44229874400003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>451.40924336363003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>459.86259213398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>470.53131336900998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>473.53131336900998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>514.26350032223002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>522.77302685207997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>530.80659645598996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>542.84966170003997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>558.15589803308001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>561.15589803308001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>578.79943763669996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>599.06851096213995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>602.06851096213995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>605.99687910044997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>611.63802504298997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>621.94424977644996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>624.94424977644996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>650.59940871293998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>672.96599553636997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>678.16921657527996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>691.78864119961997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>701.39427253002998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>704.39427253002998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>709.54628517848005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>716.23015106871003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>720.07105082344003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>733.96977100017</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>736.96977100017</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>744.39794385128005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>747.39794385128005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>750.39794385128005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>761.55807007241003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>764.55807007241003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>771.52996598381003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>787.19024501632998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>818.16399486712999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>827.98257437484006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>833.08785766269</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>842.37581382223004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>851.95760676880002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>866.19319729555002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>869.19319729555002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>879.37313022884996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>919.05123329355001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>922.05123329355001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>926.17076011037</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>929.17076011037</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>938.41070947898004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>944.46669638266997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>947.46669638266997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>957.65401443437997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>961.06871041134002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>966.82370831837</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>971.44934354453005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>974.56884562272</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>978.22953183926995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>986.60896504906998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>991.39049769981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>994.39049769981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>999.10542001043996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D09A-4417-94A3-48CDD10BE3AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo_ciclo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Worksheet!$A$2:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Worksheet!$D$2:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>35.027993726125999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.490091485043003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.722075460531002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.465102236253003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.438164713105003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.305914079513002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.237846423598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.478703882516001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.37283869705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.861386062150999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.827221193371997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.915753040546001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.738406740334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.120574571044003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.633931177470998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.132720084996002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.636742544834</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.766992727937001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.443368222274998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.585280677566999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.719998288386002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.636663285078999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.063105572365998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.763987220476999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.59123057643</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.988552298446002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.434235459493998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.696289776736002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.734034129816997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.856939081964001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.570679650776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.525244753972999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.294015883909999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.84722756056</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.029549518235001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.323767861321002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.182400716023999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33.654670825164999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.841660907906999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.669994631987002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.630057767110003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.424483045042997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.921734793538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.857035215037001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.547893944115003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.120574567974003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.051282801836003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.682237331913001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.025537638053002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.502038224913001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.530379308325003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.633173085841001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.492980810291002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.803145840326998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.645663162734998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.387751855653001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.335998682483002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38.016922192818001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.662630548837001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.136230169110998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46.892189257082002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37.440570361886003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.587716198827003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38.123703678871003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.235882797953998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51.761513246223998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.179106961864001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39.292493666383997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39.750983861437</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.544750230119</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45.641999798245998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>52.723868489197002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41.024829029887002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41.445575832541998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55.876855081151</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49.694122896606999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35.279600190017</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>53.648000642573002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.281390229773997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46.565438667142999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46.717687388843999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>49.247253776008002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.696797440405</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.347053696659003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>53.453081698025997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.682643949426001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47.372545166525001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48.447625425056003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>51.225762481719002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.666359306371</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51.995103861623001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.806549790845999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>49.028250388179003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45.253100527256997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D09A-4417-94A3-48CDD10BE3AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="246889504"/>
+        <c:axId val="252078720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="246889504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252078720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="252078720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246889504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA79172-4EF1-4967-BB56-35E5A88ACAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,19 +3138,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,91 +3161,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.3882172164794</v>
+        <v>4.3882172164793998</v>
       </c>
       <c r="C2">
-        <v>39.416210942605</v>
+        <v>39.416210942604998</v>
       </c>
       <c r="D2">
-        <v>35.027993726126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>35.027993726125999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.103215200418</v>
+        <v>16.103215200417999</v>
       </c>
       <c r="C3">
-        <v>57.593306685461</v>
+        <v>57.593306685461002</v>
       </c>
       <c r="D3">
-        <v>41.490091485043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>41.490091485043003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40.959268150266</v>
+        <v>40.959268150265999</v>
       </c>
       <c r="C4">
-        <v>76.681343610797</v>
+        <v>76.681343610797001</v>
       </c>
       <c r="D4">
-        <v>35.722075460531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>35.722075460531002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>82.799011748526</v>
+        <v>82.799011748525999</v>
       </c>
       <c r="C5">
         <v>116.26411398478</v>
       </c>
       <c r="D5">
-        <v>33.465102236253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>33.465102236253003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76.22436610371</v>
+        <v>76.224366103709997</v>
       </c>
       <c r="C6">
         <v>122.66253081682</v>
       </c>
       <c r="D6">
-        <v>46.438164713105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>46.438164713105003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>78.94249083595</v>
+        <v>78.942490835949997</v>
       </c>
       <c r="C7">
-        <v>130.24840491546</v>
+        <v>130.24840491545999</v>
       </c>
       <c r="D7">
-        <v>51.305914079513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>51.305914079513002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -479,13 +3253,13 @@
         <v>101.14232818552</v>
       </c>
       <c r="C8">
-        <v>144.38017460912</v>
+        <v>144.38017460911999</v>
       </c>
       <c r="D8">
         <v>43.237846423598</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -493,13 +3267,13 @@
         <v>107.86794402452</v>
       </c>
       <c r="C9">
-        <v>152.34664790704</v>
+        <v>152.34664790703999</v>
       </c>
       <c r="D9">
-        <v>44.478703882516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>44.478703882516001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -507,27 +3281,27 @@
         <v>145.15888792976</v>
       </c>
       <c r="C10">
-        <v>190.53172662681</v>
+        <v>190.53172662681001</v>
       </c>
       <c r="D10">
         <v>45.37283869705</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>147.67034056466</v>
+        <v>147.67034056465999</v>
       </c>
       <c r="C11">
-        <v>193.53172662681</v>
+        <v>193.53172662681001</v>
       </c>
       <c r="D11">
-        <v>45.861386062151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>45.861386062150999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -535,13 +3309,13 @@
         <v>150.98791886107</v>
       </c>
       <c r="C12">
-        <v>198.81514005445</v>
+        <v>198.81514005445001</v>
       </c>
       <c r="D12">
-        <v>47.827221193372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>47.827221193371997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -549,13 +3323,13 @@
         <v>176.57979960051</v>
       </c>
       <c r="C13">
-        <v>209.49555264106</v>
+        <v>209.49555264105999</v>
       </c>
       <c r="D13">
-        <v>32.915753040546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>32.915753040546001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -569,21 +3343,21 @@
         <v>31.738406740334</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>224.27840279463</v>
+        <v>224.27840279463001</v>
       </c>
       <c r="C15">
-        <v>261.39897736568</v>
+        <v>261.39897736568003</v>
       </c>
       <c r="D15">
-        <v>37.120574571044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>37.120574571044003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -591,41 +3365,41 @@
         <v>221.07069048276</v>
       </c>
       <c r="C16">
-        <v>264.70462166023</v>
+        <v>264.70462166022998</v>
       </c>
       <c r="D16">
-        <v>43.633931177471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>43.633931177470998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
-        <v>220.81480196627</v>
+        <v>220.81480196627001</v>
       </c>
       <c r="C17">
-        <v>269.94752205127</v>
+        <v>269.94752205127003</v>
       </c>
       <c r="D17">
-        <v>49.132720084996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>49.132720084996002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>236.31077950644</v>
+        <v>236.31077950644001</v>
       </c>
       <c r="C18">
-        <v>272.94752205127</v>
+        <v>272.94752205127003</v>
       </c>
       <c r="D18">
         <v>36.636742544834</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -633,27 +3407,27 @@
         <v>247.60309559005</v>
       </c>
       <c r="C19">
-        <v>277.37008831798</v>
+        <v>277.37008831797999</v>
       </c>
       <c r="D19">
-        <v>29.766992727937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>29.766992727937001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>254.41543034945</v>
+        <v>254.41543034944999</v>
       </c>
       <c r="C20">
         <v>304.85879857172</v>
       </c>
       <c r="D20">
-        <v>50.443368222275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>50.443368222274998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -661,13 +3435,13 @@
         <v>283.56016414797</v>
       </c>
       <c r="C21">
-        <v>311.14544482553</v>
+        <v>311.14544482552998</v>
       </c>
       <c r="D21">
-        <v>27.585280677567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>27.585280677566999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -675,41 +3449,41 @@
         <v>298.66582565258</v>
       </c>
       <c r="C22">
-        <v>338.38582394096</v>
+        <v>338.38582394095999</v>
       </c>
       <c r="D22">
-        <v>39.719998288386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>39.719998288386002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>311.74916065589</v>
+        <v>311.74916065589002</v>
       </c>
       <c r="C23">
-        <v>341.38582394096</v>
+        <v>341.38582394095999</v>
       </c>
       <c r="D23">
-        <v>29.636663285079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>29.636663285078999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>320.50288441605</v>
+        <v>320.50288441604999</v>
       </c>
       <c r="C24">
-        <v>365.56598998841</v>
+        <v>365.56598998841002</v>
       </c>
       <c r="D24">
-        <v>45.063105572366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>45.063105572365998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -717,41 +3491,41 @@
         <v>343.76045709488</v>
       </c>
       <c r="C25">
-        <v>376.52444431535</v>
+        <v>376.52444431535002</v>
       </c>
       <c r="D25">
-        <v>32.763987220477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>32.763987220476999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>336.73271736723</v>
+        <v>336.73271736723001</v>
       </c>
       <c r="C26">
-        <v>388.32394794366</v>
+        <v>388.32394794366002</v>
       </c>
       <c r="D26">
         <v>51.59123057643</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>344.63684155663</v>
+        <v>344.63684155662997</v>
       </c>
       <c r="C27">
         <v>392.62539385507</v>
       </c>
       <c r="D27">
-        <v>47.988552298446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>47.988552298446002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -759,27 +3533,27 @@
         <v>362.54770387443</v>
       </c>
       <c r="C28">
-        <v>399.98193933393</v>
+        <v>399.98193933392997</v>
       </c>
       <c r="D28">
-        <v>37.434235459494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>37.434235459493998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>357.28564955719</v>
+        <v>357.28564955719003</v>
       </c>
       <c r="C29">
-        <v>402.98193933393</v>
+        <v>402.98193933392997</v>
       </c>
       <c r="D29">
-        <v>45.696289776736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>45.696289776736002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -787,111 +3561,111 @@
         <v>361.24790520411</v>
       </c>
       <c r="C30">
-        <v>405.98193933393</v>
+        <v>405.98193933392997</v>
       </c>
       <c r="D30">
-        <v>44.734034129817</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>44.734034129816997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>386.94538438094</v>
+        <v>386.94538438094003</v>
       </c>
       <c r="C31">
-        <v>421.8023234629</v>
+        <v>421.80232346290001</v>
       </c>
       <c r="D31">
-        <v>34.856939081964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>34.856939081964001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>387.1680455721</v>
+        <v>387.16804557210003</v>
       </c>
       <c r="C32">
-        <v>429.73872522287</v>
+        <v>429.73872522287002</v>
       </c>
       <c r="D32">
         <v>42.570679650776</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>383.98701043925</v>
+        <v>383.98701043925001</v>
       </c>
       <c r="C33">
-        <v>437.51225519322</v>
+        <v>437.51225519322003</v>
       </c>
       <c r="D33">
-        <v>53.525244753973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>53.525244753972999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>387.21823930931</v>
+        <v>387.21823930930998</v>
       </c>
       <c r="C34">
-        <v>440.51225519322</v>
+        <v>440.51225519322003</v>
       </c>
       <c r="D34">
-        <v>53.29401588391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>53.294015883909999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>402.59507118344</v>
+        <v>402.59507118343998</v>
       </c>
       <c r="C35">
-        <v>445.442298744</v>
+        <v>445.44229874400003</v>
       </c>
       <c r="D35">
         <v>42.84722756056</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>400.3796938454</v>
+        <v>400.37969384540003</v>
       </c>
       <c r="C36">
-        <v>451.40924336363</v>
+        <v>451.40924336363003</v>
       </c>
       <c r="D36">
-        <v>51.029549518235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>51.029549518235001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>415.53882427266</v>
+        <v>415.53882427266001</v>
       </c>
       <c r="C37">
         <v>459.86259213398</v>
       </c>
       <c r="D37">
-        <v>44.323767861321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>44.323767861321002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -899,27 +3673,27 @@
         <v>424.34891265298</v>
       </c>
       <c r="C38">
-        <v>470.53131336901</v>
+        <v>470.53131336900998</v>
       </c>
       <c r="D38">
-        <v>46.182400716024</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>46.182400716023999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>439.87664254384</v>
+        <v>439.87664254383998</v>
       </c>
       <c r="C39">
-        <v>473.53131336901</v>
+        <v>473.53131336900998</v>
       </c>
       <c r="D39">
-        <v>33.654670825165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>33.654670825164999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -927,69 +3701,69 @@
         <v>481.42183941432</v>
       </c>
       <c r="C40">
-        <v>514.26350032223</v>
+        <v>514.26350032223002</v>
       </c>
       <c r="D40">
-        <v>32.841660907907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>32.841660907906999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>488.10303222009</v>
+        <v>488.10303222008997</v>
       </c>
       <c r="C41">
-        <v>522.77302685208</v>
+        <v>522.77302685207997</v>
       </c>
       <c r="D41">
-        <v>34.669994631987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>34.669994631987002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>496.17653868888</v>
+        <v>496.17653868887999</v>
       </c>
       <c r="C42">
-        <v>530.80659645599</v>
+        <v>530.80659645598996</v>
       </c>
       <c r="D42">
-        <v>34.63005776711</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>34.630057767110003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>501.425178655</v>
+        <v>501.42517865500002</v>
       </c>
       <c r="C43">
-        <v>542.84966170004</v>
+        <v>542.84966170003997</v>
       </c>
       <c r="D43">
-        <v>41.424483045043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>41.424483045042997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>514.23416323955</v>
+        <v>514.23416323954996</v>
       </c>
       <c r="C44">
-        <v>558.15589803308</v>
+        <v>558.15589803308001</v>
       </c>
       <c r="D44">
         <v>43.921734793538</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -997,167 +3771,167 @@
         <v>517.29886281805</v>
       </c>
       <c r="C45">
-        <v>561.15589803308</v>
+        <v>561.15589803308001</v>
       </c>
       <c r="D45">
-        <v>43.857035215037</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>43.857035215037001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>530.25154369258</v>
+        <v>530.25154369257996</v>
       </c>
       <c r="C46">
-        <v>578.7994376367</v>
+        <v>578.79943763669996</v>
       </c>
       <c r="D46">
-        <v>48.547893944115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>48.547893944115003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>556.94793639417</v>
+        <v>556.94793639417003</v>
       </c>
       <c r="C47">
-        <v>599.06851096214</v>
+        <v>599.06851096213995</v>
       </c>
       <c r="D47">
-        <v>42.120574567974</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>42.120574567974003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>566.0172281603</v>
+        <v>566.01722816029996</v>
       </c>
       <c r="C48">
-        <v>602.06851096214</v>
+        <v>602.06851096213995</v>
       </c>
       <c r="D48">
-        <v>36.051282801836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>36.051282801836003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49">
-        <v>555.31464176854</v>
+        <v>555.31464176854001</v>
       </c>
       <c r="C49">
-        <v>605.99687910045</v>
+        <v>605.99687910044997</v>
       </c>
       <c r="D49">
-        <v>50.682237331913</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>50.682237331913001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>572.61248740493</v>
+        <v>572.61248740492999</v>
       </c>
       <c r="C50">
-        <v>611.63802504299</v>
+        <v>611.63802504298997</v>
       </c>
       <c r="D50">
-        <v>39.025537638053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>39.025537638053002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>594.44221155154</v>
+        <v>594.44221155154003</v>
       </c>
       <c r="C51">
-        <v>621.94424977645</v>
+        <v>621.94424977644996</v>
       </c>
       <c r="D51">
-        <v>27.502038224913</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>27.502038224913001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52">
-        <v>568.41387046813</v>
+        <v>568.41387046812997</v>
       </c>
       <c r="C52">
-        <v>624.94424977645</v>
+        <v>624.94424977644996</v>
       </c>
       <c r="D52">
-        <v>56.530379308325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>56.530379308325003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>599.9662356271</v>
+        <v>599.96623562709999</v>
       </c>
       <c r="C53">
-        <v>650.59940871294</v>
+        <v>650.59940871293998</v>
       </c>
       <c r="D53">
-        <v>50.633173085841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>50.633173085841001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>638.47301472608</v>
+        <v>638.47301472608001</v>
       </c>
       <c r="C54">
-        <v>672.96599553637</v>
+        <v>672.96599553636997</v>
       </c>
       <c r="D54">
-        <v>34.492980810291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>34.492980810291002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>631.36607073496</v>
+        <v>631.36607073495998</v>
       </c>
       <c r="C55">
-        <v>678.16921657528</v>
+        <v>678.16921657527996</v>
       </c>
       <c r="D55">
-        <v>46.803145840327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>46.803145840326998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>659.14297803688</v>
+        <v>659.14297803687998</v>
       </c>
       <c r="C56">
-        <v>691.78864119962</v>
+        <v>691.78864119961997</v>
       </c>
       <c r="D56">
-        <v>32.645663162735</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>32.645663162734998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
@@ -1165,55 +3939,55 @@
         <v>666.00652067438</v>
       </c>
       <c r="C57">
-        <v>701.39427253003</v>
+        <v>701.39427253002998</v>
       </c>
       <c r="D57">
-        <v>35.387751855653</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>35.387751855653001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>651.05827384755</v>
+        <v>651.05827384755003</v>
       </c>
       <c r="C58">
-        <v>704.39427253003</v>
+        <v>704.39427253002998</v>
       </c>
       <c r="D58">
-        <v>53.335998682483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>53.335998682483002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59">
-        <v>671.52936298566</v>
+        <v>671.52936298565999</v>
       </c>
       <c r="C59">
-        <v>709.54628517848</v>
+        <v>709.54628517848005</v>
       </c>
       <c r="D59">
-        <v>38.016922192818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>38.016922192818001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60">
-        <v>654.56752051988</v>
+        <v>654.56752051987996</v>
       </c>
       <c r="C60">
-        <v>716.23015106871</v>
+        <v>716.23015106871003</v>
       </c>
       <c r="D60">
-        <v>61.662630548837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>61.662630548837001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1221,83 +3995,83 @@
         <v>690.93482065433</v>
       </c>
       <c r="C61">
-        <v>720.07105082344</v>
+        <v>720.07105082344003</v>
       </c>
       <c r="D61">
-        <v>29.136230169111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>29.136230169110998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>687.07758174309</v>
+        <v>687.07758174309004</v>
       </c>
       <c r="C62">
         <v>733.96977100017</v>
       </c>
       <c r="D62">
-        <v>46.892189257082</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>46.892189257082002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>699.52920063829</v>
+        <v>699.52920063829004</v>
       </c>
       <c r="C63">
         <v>736.96977100017</v>
       </c>
       <c r="D63">
-        <v>37.440570361886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>37.440570361886003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>696.81022765245</v>
+        <v>696.81022765244995</v>
       </c>
       <c r="C64">
-        <v>744.39794385128</v>
+        <v>744.39794385128005</v>
       </c>
       <c r="D64">
-        <v>47.587716198827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>47.587716198827003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65">
-        <v>709.2742401724</v>
+        <v>709.27424017240003</v>
       </c>
       <c r="C65">
-        <v>747.39794385128</v>
+        <v>747.39794385128005</v>
       </c>
       <c r="D65">
-        <v>38.123703678871</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>38.123703678871003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>703.16206105332</v>
+        <v>703.16206105332003</v>
       </c>
       <c r="C66">
-        <v>750.39794385128</v>
+        <v>750.39794385128005</v>
       </c>
       <c r="D66">
-        <v>47.235882797954</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>47.235882797953998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1305,41 +4079,41 @@
         <v>709.79655682619</v>
       </c>
       <c r="C67">
-        <v>761.55807007241</v>
+        <v>761.55807007241003</v>
       </c>
       <c r="D67">
-        <v>51.761513246224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>51.761513246223998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>729.37896311055</v>
+        <v>729.37896311054999</v>
       </c>
       <c r="C68">
-        <v>764.55807007241</v>
+        <v>764.55807007241003</v>
       </c>
       <c r="D68">
-        <v>35.179106961864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>35.179106961864001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>732.23747231742</v>
+        <v>732.23747231742004</v>
       </c>
       <c r="C69">
-        <v>771.52996598381</v>
+        <v>771.52996598381003</v>
       </c>
       <c r="D69">
-        <v>39.292493666384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>39.292493666383997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1347,55 +4121,55 @@
         <v>747.43926115489</v>
       </c>
       <c r="C70">
-        <v>787.19024501633</v>
+        <v>787.19024501632998</v>
       </c>
       <c r="D70">
         <v>39.750983861437</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>783.61924463701</v>
+        <v>783.61924463700996</v>
       </c>
       <c r="C71">
-        <v>818.16399486713</v>
+        <v>818.16399486712999</v>
       </c>
       <c r="D71">
         <v>34.544750230119</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>782.3405745766</v>
+        <v>782.34057457660003</v>
       </c>
       <c r="C72">
-        <v>827.98257437484</v>
+        <v>827.98257437484006</v>
       </c>
       <c r="D72">
-        <v>45.641999798246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>45.641999798245998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
       <c r="B73">
-        <v>780.36398917349</v>
+        <v>780.36398917349004</v>
       </c>
       <c r="C73">
         <v>833.08785766269</v>
       </c>
       <c r="D73">
-        <v>52.723868489197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>52.723868489197002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1403,181 +4177,181 @@
         <v>801.35098479234</v>
       </c>
       <c r="C74">
-        <v>842.37581382223</v>
+        <v>842.37581382223004</v>
       </c>
       <c r="D74">
-        <v>41.024829029887</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>41.024829029887002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>810.51203093626</v>
+        <v>810.51203093625998</v>
       </c>
       <c r="C75">
-        <v>851.9576067688</v>
+        <v>851.95760676880002</v>
       </c>
       <c r="D75">
-        <v>41.445575832542</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>41.445575832541998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>810.31634221439</v>
+        <v>810.31634221439003</v>
       </c>
       <c r="C76">
-        <v>866.19319729555</v>
+        <v>866.19319729555002</v>
       </c>
       <c r="D76">
         <v>55.876855081151</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>819.49907439894</v>
+        <v>819.49907439894002</v>
       </c>
       <c r="C77">
-        <v>869.19319729555</v>
+        <v>869.19319729555002</v>
       </c>
       <c r="D77">
-        <v>49.694122896607</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>49.694122896606999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>844.09353003883</v>
+        <v>844.09353003882995</v>
       </c>
       <c r="C78">
-        <v>879.37313022885</v>
+        <v>879.37313022884996</v>
       </c>
       <c r="D78">
         <v>35.279600190017</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>865.40323265098</v>
+        <v>865.40323265098004</v>
       </c>
       <c r="C79">
-        <v>919.05123329355</v>
+        <v>919.05123329355001</v>
       </c>
       <c r="D79">
-        <v>53.648000642573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>53.648000642573002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>882.76984306378</v>
+        <v>882.76984306377994</v>
       </c>
       <c r="C80">
-        <v>922.05123329355</v>
+        <v>922.05123329355001</v>
       </c>
       <c r="D80">
-        <v>39.281390229774</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>39.281390229773997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>879.60532144323</v>
+        <v>879.60532144322997</v>
       </c>
       <c r="C81">
         <v>926.17076011037</v>
       </c>
       <c r="D81">
-        <v>46.565438667143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>46.565438667142999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>882.45307272153</v>
+        <v>882.45307272153002</v>
       </c>
       <c r="C82">
         <v>929.17076011037</v>
       </c>
       <c r="D82">
-        <v>46.717687388844</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>46.717687388843999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>889.16345570297</v>
+        <v>889.16345570297005</v>
       </c>
       <c r="C83">
-        <v>938.41070947898</v>
+        <v>938.41070947898004</v>
       </c>
       <c r="D83">
-        <v>49.247253776008</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>49.247253776008002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>892.76989894227</v>
+        <v>892.76989894226995</v>
       </c>
       <c r="C84">
-        <v>944.46669638267</v>
+        <v>944.46669638266997</v>
       </c>
       <c r="D84">
         <v>51.696797440405</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85">
-        <v>915.11964268601</v>
+        <v>915.11964268601002</v>
       </c>
       <c r="C85">
-        <v>947.46669638267</v>
+        <v>947.46669638266997</v>
       </c>
       <c r="D85">
-        <v>32.347053696659</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>32.347053696659003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>904.20093273635</v>
+        <v>904.20093273634996</v>
       </c>
       <c r="C86">
-        <v>957.65401443438</v>
+        <v>957.65401443437997</v>
       </c>
       <c r="D86">
-        <v>53.453081698026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>53.453081698025997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1585,83 +4359,83 @@
         <v>916.38606646192</v>
       </c>
       <c r="C87">
-        <v>961.06871041134</v>
+        <v>961.06871041134002</v>
       </c>
       <c r="D87">
-        <v>44.682643949426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>44.682643949426001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>919.45116315185</v>
+        <v>919.45116315184998</v>
       </c>
       <c r="C88">
         <v>966.82370831837</v>
       </c>
       <c r="D88">
-        <v>47.372545166525</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>47.372545166525001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>923.00171811948</v>
+        <v>923.00171811947996</v>
       </c>
       <c r="C89">
-        <v>971.44934354453</v>
+        <v>971.44934354453005</v>
       </c>
       <c r="D89">
-        <v>48.447625425056</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>48.447625425056003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>923.343083141</v>
+        <v>923.34308314099997</v>
       </c>
       <c r="C90">
         <v>974.56884562272</v>
       </c>
       <c r="D90">
-        <v>51.225762481719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>51.225762481719002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>934.5631725329</v>
+        <v>934.56317253290001</v>
       </c>
       <c r="C91">
-        <v>978.22953183927</v>
+        <v>978.22953183926995</v>
       </c>
       <c r="D91">
         <v>43.666359306371</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>934.61386118745</v>
+        <v>934.61386118744997</v>
       </c>
       <c r="C92">
-        <v>986.60896504907</v>
+        <v>986.60896504906998</v>
       </c>
       <c r="D92">
-        <v>51.995103861623</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>51.995103861623001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1672,49 +4446,40 @@
         <v>991.39049769981</v>
       </c>
       <c r="D93">
-        <v>55.806549790846</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>55.806549790845999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>945.36224731163</v>
+        <v>945.36224731162997</v>
       </c>
       <c r="C94">
         <v>994.39049769981</v>
       </c>
       <c r="D94">
-        <v>49.028250388179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>49.028250388179003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>953.85231948319</v>
+        <v>953.85231948318994</v>
       </c>
       <c r="C95">
-        <v>999.10542001044</v>
+        <v>999.10542001043996</v>
       </c>
       <c r="D95">
-        <v>45.253100527257</v>
+        <v>45.253100527256997</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>